--- a/doc/backend/responselist.xlsx
+++ b/doc/backend/responselist.xlsx
@@ -8,30 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IMU_Tracker\doc\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806102A1-D3F8-4A08-A653-05A1FCBA4214}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA08CFC-18FE-434C-B0C9-76D9D064A391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="3015" windowWidth="14550" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29880" yWindow="1725" windowWidth="16995" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>code/id</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>successfuly registered as sender</t>
   </si>
@@ -90,6 +93,45 @@
   </si>
   <si>
     <t>error: server offline</t>
+  </si>
+  <si>
+    <t>error: not authenticated as sender</t>
+  </si>
+  <si>
+    <t>error: unknown datatype</t>
+  </si>
+  <si>
+    <t>error: missing apikey</t>
+  </si>
+  <si>
+    <t>error: missing channel id</t>
+  </si>
+  <si>
+    <t>error: missing subscription data</t>
+  </si>
+  <si>
+    <t>error: subscriber, cant be a sender at same time</t>
+  </si>
+  <si>
+    <t>error : sender, cant be a subscriber at same time</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Code/Id</t>
+  </si>
+  <si>
+    <t>Client response description</t>
+  </si>
+  <si>
+    <t>Testate</t>
+  </si>
+  <si>
+    <t>TESTED</t>
+  </si>
+  <si>
+    <t>UNRESTED</t>
   </si>
 </sst>
 </file>
@@ -133,14 +175,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7979"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -150,6 +231,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A708AD1F-33CD-4EE0-AA4B-65DE976A6358}" name="Tabelle1" displayName="Tabelle1" ref="B3:D46" totalsRowShown="0">
+  <autoFilter ref="B3:D46" xr:uid="{3BBFBF9C-0F53-422B-9D16-0B9451E58832}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{80E66476-1C1C-493F-8CE9-ACE94AF6A3DE}" name="Code/Id" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{59D65196-AD0C-4FC7-9F14-66EF9F3CD1A5}" name="Client response description"/>
+    <tableColumn id="3" xr3:uid="{64195F0A-42EB-431A-87BB-BEC9E7232B13}" name="Testate" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,277 +508,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C46"/>
+  <dimension ref="B3:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="D27" s="1" t="str">
+        <f>IF(ISBLANK(C27),$I$4,$I$5)</f>
+        <v>TESTED</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="D28" s="1" t="str">
+        <f>IF(ISBLANK(C28),$I$4,$I$5)</f>
+        <v>TESTED</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>IF(ISBLANK(C30),$I$4,$I$5)</f>
+        <v>TESTED</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>IF(ISBLANK(C31),$I$4,$I$5)</f>
+        <v>TESTED</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="D34" s="1" t="str">
+        <f>IF(ISBLANK(C34),$I$4,$I$5)</f>
+        <v>TESTED</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="D35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>IF(ISBLANK(C36),$I$4,$I$5)</f>
+        <v>TESTED</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>35</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>36</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>37</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>38</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>39</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>41</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>42</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
+      <c r="D46" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="rksNwqu0uaKqAdvq/adG7vpI6kDTjjZiFhUDGFtRdG+ZSWevmUQhDOQGf+d9xk3MC9RRXlByEN/YBRxrHFCwRw==" saltValue="4oxeahfFZ1fHIuat056XuA==" spinCount="100000" sqref="I3:I5" name="Optionen"/>
+  </protectedRanges>
+  <conditionalFormatting sqref="D4:D46">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ISBLANK(C4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>IF(ISBLANK(D4),FALSE,MATCH($I$4,D4,-1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>IF(ISBLANK(D4),FALSE,MATCH($I$5,D4,-1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D46" xr:uid="{79EEA22D-5E10-46E2-A022-5145183C434C}">
+      <formula1>$I$4:$I$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/doc/backend/responselist.xlsx
+++ b/doc/backend/responselist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IMU_Tracker\doc\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\IMU_Tracker\doc\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA08CFC-18FE-434C-B0C9-76D9D064A391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E15E5D1-3629-437C-BC20-B082899F1233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="1725" windowWidth="16995" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>successfuly registered as sender</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>UNRESTED</t>
+  </si>
+  <si>
+    <t>UNTESTED</t>
   </si>
 </sst>
 </file>
@@ -237,9 +240,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A708AD1F-33CD-4EE0-AA4B-65DE976A6358}" name="Tabelle1" displayName="Tabelle1" ref="B3:D46" totalsRowShown="0">
   <autoFilter ref="B3:D46" xr:uid="{3BBFBF9C-0F53-422B-9D16-0B9451E58832}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{80E66476-1C1C-493F-8CE9-ACE94AF6A3DE}" name="Code/Id" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{80E66476-1C1C-493F-8CE9-ACE94AF6A3DE}" name="Code/Id" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{59D65196-AD0C-4FC7-9F14-66EF9F3CD1A5}" name="Client response description"/>
-    <tableColumn id="3" xr3:uid="{64195F0A-42EB-431A-87BB-BEC9E7232B13}" name="Testate" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{64195F0A-42EB-431A-87BB-BEC9E7232B13}" name="Testate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -510,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -553,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
@@ -564,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -572,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -580,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -588,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -596,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -604,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -612,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -620,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -653,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -661,7 +664,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -669,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -677,7 +680,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -685,7 +688,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -693,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -701,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -745,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -780,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -815,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -826,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -849,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -869,7 +872,7 @@
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -877,7 +880,7 @@
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -885,7 +888,7 @@
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -893,7 +896,7 @@
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -901,7 +904,7 @@
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -909,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -917,7 +920,7 @@
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -936,7 +939,7 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">

--- a/doc/backend/responselist.xlsx
+++ b/doc/backend/responselist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IMU_Tracker\doc\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA08CFC-18FE-434C-B0C9-76D9D064A391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804C4F1A-9A96-4379-A95F-0AD143366FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="1725" windowWidth="16995" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>successfuly registered as sender</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>UNRESTED</t>
+  </si>
+  <si>
+    <t>connected websocket</t>
+  </si>
+  <si>
+    <t>not conncted websocket</t>
+  </si>
+  <si>
+    <t>global channel update</t>
   </si>
 </sst>
 </file>
@@ -237,9 +246,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A708AD1F-33CD-4EE0-AA4B-65DE976A6358}" name="Tabelle1" displayName="Tabelle1" ref="B3:D46" totalsRowShown="0">
   <autoFilter ref="B3:D46" xr:uid="{3BBFBF9C-0F53-422B-9D16-0B9451E58832}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{80E66476-1C1C-493F-8CE9-ACE94AF6A3DE}" name="Code/Id" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{80E66476-1C1C-493F-8CE9-ACE94AF6A3DE}" name="Code/Id" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{59D65196-AD0C-4FC7-9F14-66EF9F3CD1A5}" name="Client response description"/>
-    <tableColumn id="3" xr3:uid="{64195F0A-42EB-431A-87BB-BEC9E7232B13}" name="Testate" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{64195F0A-42EB-431A-87BB-BEC9E7232B13}" name="Testate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -510,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,6 +550,9 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
@@ -552,6 +564,9 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
@@ -578,6 +593,9 @@
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>24</v>

--- a/doc/backend/responselist.xlsx
+++ b/doc/backend/responselist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IMU_Tracker\doc\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804C4F1A-9A96-4379-A95F-0AD143366FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC5FBBF-993F-46D1-ACAD-7235D4FCD470}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11010" yWindow="1875" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -198,12 +198,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -223,6 +217,12 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,9 +246,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A708AD1F-33CD-4EE0-AA4B-65DE976A6358}" name="Tabelle1" displayName="Tabelle1" ref="B3:D46" totalsRowShown="0">
   <autoFilter ref="B3:D46" xr:uid="{3BBFBF9C-0F53-422B-9D16-0B9451E58832}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{80E66476-1C1C-493F-8CE9-ACE94AF6A3DE}" name="Code/Id" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{80E66476-1C1C-493F-8CE9-ACE94AF6A3DE}" name="Code/Id" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{59D65196-AD0C-4FC7-9F14-66EF9F3CD1A5}" name="Client response description"/>
-    <tableColumn id="3" xr3:uid="{64195F0A-42EB-431A-87BB-BEC9E7232B13}" name="Testate" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{64195F0A-42EB-431A-87BB-BEC9E7232B13}" name="Testate" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,9 +550,6 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
@@ -577,6 +574,9 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
@@ -973,13 +973,13 @@
     <protectedRange algorithmName="SHA-512" hashValue="rksNwqu0uaKqAdvq/adG7vpI6kDTjjZiFhUDGFtRdG+ZSWevmUQhDOQGf+d9xk3MC9RRXlByEN/YBRxrHFCwRw==" saltValue="4oxeahfFZ1fHIuat056XuA==" spinCount="100000" sqref="I3:I5" name="Optionen"/>
   </protectedRanges>
   <conditionalFormatting sqref="D4:D46">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>ISBLANK(C4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>IF(ISBLANK(D4),FALSE,MATCH($I$4,D4,-1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>IF(ISBLANK(D4),FALSE,MATCH($I$5,D4,-1))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/backend/responselist.xlsx
+++ b/doc/backend/responselist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IMU_Tracker\doc\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC5FBBF-993F-46D1-ACAD-7235D4FCD470}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A326D31-CB18-4C0F-A812-8302C62EA494}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="1875" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34605" yWindow="0" windowWidth="16995" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,86 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
-    <t>successfuly registered as sender</t>
-  </si>
-  <si>
-    <t>error: already redisterd as sender</t>
-  </si>
-  <si>
-    <t>successfuly subscribed to channel</t>
-  </si>
-  <si>
-    <t>error: invalid channel id</t>
-  </si>
-  <si>
-    <t>error:  invalid api key</t>
-  </si>
-  <si>
-    <t>error: already subscribed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">successfuly </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>un</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subscribed from channel</t>
-    </r>
-  </si>
-  <si>
-    <t>error: type missing</t>
-  </si>
-  <si>
-    <t>error: data missing</t>
-  </si>
-  <si>
-    <t>error: unknown error</t>
-  </si>
-  <si>
-    <t>error: not subscribed</t>
-  </si>
-  <si>
-    <t>error: server offline</t>
-  </si>
-  <si>
-    <t>error: not authenticated as sender</t>
-  </si>
-  <si>
-    <t>error: unknown datatype</t>
-  </si>
-  <si>
-    <t>error: missing apikey</t>
-  </si>
-  <si>
-    <t>error: missing channel id</t>
-  </si>
-  <si>
-    <t>error: missing subscription data</t>
-  </si>
-  <si>
-    <t>error: subscriber, cant be a sender at same time</t>
-  </si>
-  <si>
-    <t>error : sender, cant be a subscriber at same time</t>
-  </si>
-  <si>
     <t>Options</t>
   </si>
   <si>
@@ -134,29 +54,78 @@
     <t>UNRESTED</t>
   </si>
   <si>
-    <t>connected websocket</t>
-  </si>
-  <si>
-    <t>not conncted websocket</t>
-  </si>
-  <si>
-    <t>global channel update</t>
+    <t>NOT CONNECTED</t>
+  </si>
+  <si>
+    <t>CONNECTED</t>
+  </si>
+  <si>
+    <t>GLOBAL UPDATE</t>
+  </si>
+  <si>
+    <t>DEVICE REGISTERED</t>
+  </si>
+  <si>
+    <t>OBSERVER REGISTERED</t>
+  </si>
+  <si>
+    <t>OBSERVER UNREGISTERED</t>
+  </si>
+  <si>
+    <t>MISSING API KEY</t>
+  </si>
+  <si>
+    <t>INVALID API KEY</t>
+  </si>
+  <si>
+    <t>DEVICE ALREADY REGISTERED</t>
+  </si>
+  <si>
+    <t>DEVICE NOT REGISTERED</t>
+  </si>
+  <si>
+    <t>INVALID DEVICE ID</t>
+  </si>
+  <si>
+    <t>OBSERVER ALREADY REGISTERED</t>
+  </si>
+  <si>
+    <t>OBSERVER NOT REGISTERED</t>
+  </si>
+  <si>
+    <t>MISSING DEVICE ID</t>
+  </si>
+  <si>
+    <t>OBSERVER MISSING REGESTRATION STATE</t>
+  </si>
+  <si>
+    <t>OBSERVER CANT REGISTER AS DEVICE</t>
+  </si>
+  <si>
+    <t>DEVICE CANT REGISTER AS OBSERVER</t>
+  </si>
+  <si>
+    <t>MISSING TYPE</t>
+  </si>
+  <si>
+    <t>MISSING DATA</t>
+  </si>
+  <si>
+    <t>UNKNOWN DATA TYPE</t>
+  </si>
+  <si>
+    <t>SERVER OFFLINE</t>
+  </si>
+  <si>
+    <t>UNKNOWN ERROR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -198,6 +167,12 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -217,12 +192,6 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,9 +215,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A708AD1F-33CD-4EE0-AA4B-65DE976A6358}" name="Tabelle1" displayName="Tabelle1" ref="B3:D46" totalsRowShown="0">
   <autoFilter ref="B3:D46" xr:uid="{3BBFBF9C-0F53-422B-9D16-0B9451E58832}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{80E66476-1C1C-493F-8CE9-ACE94AF6A3DE}" name="Code/Id" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{80E66476-1C1C-493F-8CE9-ACE94AF6A3DE}" name="Code/Id" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{59D65196-AD0C-4FC7-9F14-66EF9F3CD1A5}" name="Client response description"/>
-    <tableColumn id="3" xr3:uid="{64195F0A-42EB-431A-87BB-BEC9E7232B13}" name="Testate" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{64195F0A-42EB-431A-87BB-BEC9E7232B13}" name="Testate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,16 +503,16 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -551,10 +520,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -562,13 +531,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -576,10 +545,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -587,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -595,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -606,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -614,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -622,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -630,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -638,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -646,10 +615,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -657,10 +626,10 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -668,10 +637,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -679,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -687,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -695,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -703,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -711,7 +680,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -719,7 +688,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -727,10 +696,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -738,10 +707,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -749,10 +718,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -760,10 +729,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -771,7 +740,7 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="str">
         <f>IF(ISBLANK(C27),$I$4,$I$5)</f>
@@ -783,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="str">
         <f>IF(ISBLANK(C28),$I$4,$I$5)</f>
@@ -795,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -806,7 +775,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>IF(ISBLANK(C30),$I$4,$I$5)</f>
@@ -818,7 +787,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1" t="str">
         <f>IF(ISBLANK(C31),$I$4,$I$5)</f>
@@ -830,10 +799,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -841,10 +810,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -852,7 +821,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1" t="str">
         <f>IF(ISBLANK(C34),$I$4,$I$5)</f>
@@ -864,10 +833,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -875,7 +844,7 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D36" s="1" t="str">
         <f>IF(ISBLANK(C36),$I$4,$I$5)</f>
@@ -887,7 +856,7 @@
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -895,7 +864,7 @@
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -903,7 +872,7 @@
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -911,7 +880,7 @@
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -919,7 +888,7 @@
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -927,7 +896,7 @@
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -935,7 +904,7 @@
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -943,10 +912,10 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -954,7 +923,7 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -962,10 +931,10 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -973,13 +942,13 @@
     <protectedRange algorithmName="SHA-512" hashValue="rksNwqu0uaKqAdvq/adG7vpI6kDTjjZiFhUDGFtRdG+ZSWevmUQhDOQGf+d9xk3MC9RRXlByEN/YBRxrHFCwRw==" saltValue="4oxeahfFZ1fHIuat056XuA==" spinCount="100000" sqref="I3:I5" name="Optionen"/>
   </protectedRanges>
   <conditionalFormatting sqref="D4:D46">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>ISBLANK(C4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>IF(ISBLANK(D4),FALSE,MATCH($I$4,D4,-1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>IF(ISBLANK(D4),FALSE,MATCH($I$5,D4,-1))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/backend/responselist.xlsx
+++ b/doc/backend/responselist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IMU_Tracker\doc\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nextcloud\02 - Projekte\GitHub\IMU_Tracker\doc\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A326D31-CB18-4C0F-A812-8302C62EA494}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F536328-F0D1-4448-B063-4CDC1E22BA75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34605" yWindow="0" windowWidth="16995" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10365" yWindow="2370" windowWidth="38700" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Options</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>UNKNOWN ERROR</t>
+  </si>
+  <si>
+    <t>DEVICE LOGGOUT FAILED</t>
+  </si>
+  <si>
+    <t>DEVICE LOGGED OUT</t>
   </si>
 </sst>
 </file>
@@ -488,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +604,9 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
@@ -605,6 +614,9 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>

--- a/doc/backend/responselist.xlsx
+++ b/doc/backend/responselist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nextcloud\02 - Projekte\GitHub\IMU_Tracker\doc\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F536328-F0D1-4448-B063-4CDC1E22BA75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455BE6C1-FD76-4838-8534-AA1638BCFA47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="2370" windowWidth="38700" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26310" yWindow="240" windowWidth="17130" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/backend/responselist.xlsx
+++ b/doc/backend/responselist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nextcloud\02 - Projekte\GitHub\IMU_Tracker\doc\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455BE6C1-FD76-4838-8534-AA1638BCFA47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5801ABA5-7125-4D9F-86CD-582A3E4429A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26310" yWindow="240" windowWidth="17130" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -66,12 +66,6 @@
     <t>DEVICE REGISTERED</t>
   </si>
   <si>
-    <t>OBSERVER REGISTERED</t>
-  </si>
-  <si>
-    <t>OBSERVER UNREGISTERED</t>
-  </si>
-  <si>
     <t>MISSING API KEY</t>
   </si>
   <si>
@@ -87,24 +81,9 @@
     <t>INVALID DEVICE ID</t>
   </si>
   <si>
-    <t>OBSERVER ALREADY REGISTERED</t>
-  </si>
-  <si>
-    <t>OBSERVER NOT REGISTERED</t>
-  </si>
-  <si>
     <t>MISSING DEVICE ID</t>
   </si>
   <si>
-    <t>OBSERVER MISSING REGESTRATION STATE</t>
-  </si>
-  <si>
-    <t>OBSERVER CANT REGISTER AS DEVICE</t>
-  </si>
-  <si>
-    <t>DEVICE CANT REGISTER AS OBSERVER</t>
-  </si>
-  <si>
     <t>MISSING TYPE</t>
   </si>
   <si>
@@ -124,6 +103,27 @@
   </si>
   <si>
     <t>DEVICE LOGGED OUT</t>
+  </si>
+  <si>
+    <t>SUBSCRIBER REGISTERED</t>
+  </si>
+  <si>
+    <t>SUBSCRIBER UNREGISTERED</t>
+  </si>
+  <si>
+    <t>SUBSCRIBER ALREADY REGISTERED</t>
+  </si>
+  <si>
+    <t>SUBSCRIBER NOT REGISTERED</t>
+  </si>
+  <si>
+    <t>SUBSCRIBER MISSING REGESTRATION STATE</t>
+  </si>
+  <si>
+    <t>SUBSCRIBER CANT REGISTER AS DEVICE</t>
+  </si>
+  <si>
+    <t>DEVICE CANT REGISTER AS SUBSCRIBER</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -605,7 +605,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -616,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -638,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
@@ -649,7 +649,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -708,7 +708,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>4</v>
@@ -719,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>4</v>
@@ -730,7 +730,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>4</v>
@@ -741,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
@@ -752,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="str">
         <f>IF(ISBLANK(C27),$I$4,$I$5)</f>
@@ -764,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1" t="str">
         <f>IF(ISBLANK(C28),$I$4,$I$5)</f>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -787,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>IF(ISBLANK(C30),$I$4,$I$5)</f>
@@ -799,7 +799,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1" t="str">
         <f>IF(ISBLANK(C31),$I$4,$I$5)</f>
@@ -811,7 +811,7 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
@@ -822,7 +822,7 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
@@ -833,7 +833,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="str">
         <f>IF(ISBLANK(C34),$I$4,$I$5)</f>
@@ -845,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>5</v>
@@ -856,7 +856,7 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="str">
         <f>IF(ISBLANK(C36),$I$4,$I$5)</f>
@@ -924,7 +924,7 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>5</v>
@@ -943,7 +943,7 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>5</v>

--- a/doc/backend/responselist.xlsx
+++ b/doc/backend/responselist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nextcloud\02 - Projekte\GitHub\IMU_Tracker\doc\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5801ABA5-7125-4D9F-86CD-582A3E4429A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A5E91-1120-4928-8860-C21367053926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16020" yWindow="1950" windowWidth="38700" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>Options</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>DEVICE CANT REGISTER AS SUBSCRIBER</t>
+  </si>
+  <si>
+    <t>DATA ITEM CONUT DOESNT MATCH</t>
   </si>
 </sst>
 </file>
@@ -494,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +869,9 @@
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
